--- a/docs/timesheet_ellen_tijtgat.xlsx
+++ b/docs/timesheet_ellen_tijtgat.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gebruiker/Documents/School/Semester 5/CMP/Eindopdracht/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gebruiker/Code/cmp3_1617/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13060" yWindow="460" windowWidth="15740" windowHeight="16340" tabRatio="500"/>
+    <workbookView xWindow="7780" yWindow="460" windowWidth="21020" windowHeight="16340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>Datum</t>
   </si>
@@ -59,14 +59,44 @@
     <t>4u</t>
   </si>
   <si>
-    <t>Totaal: 8u</t>
+    <t xml:space="preserve">DEV </t>
+  </si>
+  <si>
+    <t>Omgeving klaargezet + mappenstructuur opgemaakt + gitlab account aan github gelinkt</t>
+  </si>
+  <si>
+    <t>DES + DEV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aanvulling inhoud README.md + style tiles </t>
+  </si>
+  <si>
+    <t>3u</t>
+  </si>
+  <si>
+    <t>Start wireframes</t>
+  </si>
+  <si>
+    <t>Verder werken aan wireframes</t>
+  </si>
+  <si>
+    <t>html5 template homepage</t>
+  </si>
+  <si>
+    <t>Visual design homepage</t>
+  </si>
+  <si>
+    <t>1u</t>
+  </si>
+  <si>
+    <t>Totaal: 23u</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -81,6 +111,12 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri (Hoofdtekst)"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -91,7 +127,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFF9300"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -108,16 +144,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -389,35 +431,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="60.83203125" customWidth="1"/>
+    <col min="3" max="3" width="72.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>42659</v>
       </c>
       <c r="B2" t="s">
@@ -429,12 +472,12 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
+      <c r="F2" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>42667</v>
       </c>
       <c r="B3" t="s">
@@ -448,7 +491,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>42668</v>
       </c>
       <c r="B4" t="s">
@@ -458,6 +501,90 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>42679</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>42680</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>42682</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>42683</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>42686</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>42687</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/timesheet_ellen_tijtgat.xlsx
+++ b/docs/timesheet_ellen_tijtgat.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>Datum</t>
   </si>
@@ -89,7 +89,13 @@
     <t>1u</t>
   </si>
   <si>
-    <t>Totaal: 23u</t>
+    <t>Start omzetten html5 template naar drupal template</t>
+  </si>
+  <si>
+    <t>Afwerking drupal template + dossier aanpassen</t>
+  </si>
+  <si>
+    <t>Totaal: 28u</t>
   </si>
 </sst>
 </file>
@@ -431,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -473,7 +479,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -586,6 +592,34 @@
       </c>
       <c r="D10" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>42692</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>42694</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/docs/timesheet_ellen_tijtgat.xlsx
+++ b/docs/timesheet_ellen_tijtgat.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Datum</t>
   </si>
@@ -95,7 +95,16 @@
     <t>Afwerking drupal template + dossier aanpassen</t>
   </si>
   <si>
-    <t>Totaal: 28u</t>
+    <t>User roles + permissions +display suite + community accounting</t>
+  </si>
+  <si>
+    <t>DEV</t>
+  </si>
+  <si>
+    <t>Custom content type: sercives voor aanbod en vraag + aanpassing template</t>
+  </si>
+  <si>
+    <t>Totaal: 34u</t>
   </si>
 </sst>
 </file>
@@ -437,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -479,7 +488,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -619,6 +628,34 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>42698</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>42720</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
         <v>14</v>
       </c>
     </row>

--- a/docs/timesheet_ellen_tijtgat.xlsx
+++ b/docs/timesheet_ellen_tijtgat.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>Datum</t>
   </si>
@@ -38,27 +38,18 @@
     <t>Taak</t>
   </si>
   <si>
-    <t>Tijd</t>
-  </si>
-  <si>
     <t>DES</t>
   </si>
   <si>
     <t>Start productiedossier en timesheet</t>
   </si>
   <si>
-    <t>2u</t>
-  </si>
-  <si>
     <t>Ideëenborden en moodboard</t>
   </si>
   <si>
     <t>Moodboard afgewerkt volgens de normen + start lay-out presentatie</t>
   </si>
   <si>
-    <t>4u</t>
-  </si>
-  <si>
     <t xml:space="preserve">DEV </t>
   </si>
   <si>
@@ -71,9 +62,6 @@
     <t xml:space="preserve">Aanvulling inhoud README.md + style tiles </t>
   </si>
   <si>
-    <t>3u</t>
-  </si>
-  <si>
     <t>Start wireframes</t>
   </si>
   <si>
@@ -86,9 +74,6 @@
     <t>Visual design homepage</t>
   </si>
   <si>
-    <t>1u</t>
-  </si>
-  <si>
     <t>Start omzetten html5 template naar drupal template</t>
   </si>
   <si>
@@ -104,14 +89,32 @@
     <t>Custom content type: sercives voor aanbod en vraag + aanpassing template</t>
   </si>
   <si>
-    <t>Totaal: 34u</t>
+    <t>Afwerking style tiles + visual design aanbod/vraag pagina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visual design aanbodptie </t>
+  </si>
+  <si>
+    <t>Lay-out website aangepast naar cutsom theme + User navigatie + navigation met login en transacties</t>
+  </si>
+  <si>
+    <t>Aanpassingen dossier + content type services aangemaakt voor aanbod en vraag</t>
+  </si>
+  <si>
+    <t>Display suite + Views voor de services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totaal: </t>
+  </si>
+  <si>
+    <t>Tijd (u)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -131,6 +134,13 @@
       <sz val="24"/>
       <color theme="1"/>
       <name val="Calibri (Hoofdtekst)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -159,11 +169,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
@@ -446,17 +457,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="72.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -471,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="31" x14ac:dyDescent="0.35">
@@ -479,30 +490,34 @@
         <v>42659</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="D2">
+        <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>42667</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4">
+        <f>SUM(D2:D19)</f>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -510,13 +525,13 @@
         <v>42668</v>
       </c>
       <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
         <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -524,13 +539,13 @@
         <v>42679</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -538,13 +553,13 @@
         <v>42680</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -552,13 +567,13 @@
         <v>42682</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -566,13 +581,13 @@
         <v>42683</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -580,13 +595,13 @@
         <v>42686</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -594,13 +609,13 @@
         <v>42687</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -608,13 +623,13 @@
         <v>42692</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -622,13 +637,13 @@
         <v>42694</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -636,13 +651,55 @@
         <v>42698</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>42707</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>42714</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>42718</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -650,13 +707,41 @@
         <v>42720</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>42721</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
         <v>24</v>
       </c>
-      <c r="D17" t="s">
-        <v>14</v>
+      <c r="D18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>42722</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/docs/timesheet_ellen_tijtgat.xlsx
+++ b/docs/timesheet_ellen_tijtgat.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>Datum</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>Tijd (u)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User navigatie enkel op de userpagina's laten zien </t>
+  </si>
+  <si>
+    <t>Slideshow op iedere aanbod/vraagpagina</t>
   </si>
 </sst>
 </file>
@@ -457,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -516,8 +522,8 @@
         <v>2</v>
       </c>
       <c r="F3" s="4">
-        <f>SUM(D2:D19)</f>
-        <v>51</v>
+        <f>SUM(D2:D21)</f>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -742,6 +748,34 @@
       </c>
       <c r="D19">
         <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>42732</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>42733</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/docs/timesheet_ellen_tijtgat.xlsx
+++ b/docs/timesheet_ellen_tijtgat.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>Datum</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>Slideshow op iedere aanbod/vraagpagina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mijn aanbodpagina aangepast, footermenu, userlogin </t>
+  </si>
+  <si>
+    <t>Homepage, messages, accountpagina, algmene contacpagina, test online deployment (5u!!!!)</t>
   </si>
 </sst>
 </file>
@@ -463,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -522,8 +528,8 @@
         <v>2</v>
       </c>
       <c r="F3" s="4">
-        <f>SUM(D2:D21)</f>
-        <v>56</v>
+        <f>SUM(D2:D23)</f>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -776,6 +782,34 @@
       </c>
       <c r="D21">
         <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>42705</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>42706</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/docs/timesheet_ellen_tijtgat.xlsx
+++ b/docs/timesheet_ellen_tijtgat.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>Datum</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Homepage, messages, accountpagina, algmene contacpagina, test online deployment (5u!!!!)</t>
+  </si>
+  <si>
+    <t>Online deployment + afwerken productiedossier, timesheet en presentatie</t>
   </si>
 </sst>
 </file>
@@ -469,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -528,8 +531,8 @@
         <v>2</v>
       </c>
       <c r="F3" s="4">
-        <f>SUM(D2:D23)</f>
-        <v>72</v>
+        <f>SUM(D2:D24)</f>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -599,7 +602,7 @@
         <v>12</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -725,7 +728,7 @@
         <v>19</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -767,7 +770,7 @@
         <v>27</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -786,7 +789,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
@@ -800,7 +803,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>42706</v>
+        <v>42737</v>
       </c>
       <c r="B23" t="s">
         <v>18</v>
@@ -810,6 +813,20 @@
       </c>
       <c r="D23">
         <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>42738</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
